--- a/testing-for-nepse/Broker Analysis.xlsx
+++ b/testing-for-nepse/Broker Analysis.xlsx
@@ -12079,7 +12079,7 @@
     <t>SHPC/8025/565.27</t>
   </si>
   <si>
-    <t>SHIVM/37483/522.580</t>
+    <t>SHIVM/37483/522.58</t>
   </si>
   <si>
     <t>NIFRA/67466/283.44</t>
